--- a/2020/LO1Roz/Lekcja_2/raport.xlsx
+++ b/2020/LO1Roz/Lekcja_2/raport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Attendees" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="228">
   <si>
     <t>Session - 01</t>
   </si>
@@ -55,9 +55,6 @@
     <t>0h 19m 19s</t>
   </si>
   <si>
-    <t>0h 0m 26s</t>
-  </si>
-  <si>
     <t>10-16-2020 11:19</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>10-17-2020 15:25</t>
   </si>
   <si>
-    <t>10-18-2020 03:59</t>
-  </si>
-  <si>
     <t>10-16-2020 11:20</t>
   </si>
   <si>
@@ -187,12 +181,6 @@
     <t>cp-efmnaxfmb-qohnvmhdnl8uhhr-3fjwts</t>
   </si>
   <si>
-    <t>10-17-2020 15:52</t>
-  </si>
-  <si>
-    <t>0h 26m 26s</t>
-  </si>
-  <si>
     <t>Maksymilian Krajewski</t>
   </si>
   <si>
@@ -226,66 +214,21 @@
     <t>ut-fj2fgndpy-wb3gzjflqtcckiw-kjqnn6</t>
   </si>
   <si>
-    <t>10-17-2020 15:53</t>
-  </si>
-  <si>
-    <t>10-17-2020 16:04</t>
-  </si>
-  <si>
-    <t>0h 11m 18s</t>
-  </si>
-  <si>
     <t>b4-plajk12sf-brfbgkkzdtfka4f-y7urbo</t>
   </si>
   <si>
-    <t>10-17-2020 16:03</t>
-  </si>
-  <si>
-    <t>0h 1m 10s</t>
-  </si>
-  <si>
     <t>um-bkobbwusg-4ckwvskfo2n750p-oj3jpx</t>
   </si>
   <si>
-    <t>10-17-2020 16:05</t>
-  </si>
-  <si>
-    <t>10-17-2020 16:15</t>
-  </si>
-  <si>
-    <t>0h 10m 3s</t>
-  </si>
-  <si>
     <t>im-nguglwyoi-zlepfjw4zyipqqr-xe4syf</t>
   </si>
   <si>
-    <t>10-17-2020 16:16</t>
-  </si>
-  <si>
     <t>f5-8kacz4onq-ibqbntqo0idvykm-5vljjz</t>
   </si>
   <si>
-    <t>10-17-2020 16:17</t>
-  </si>
-  <si>
-    <t>10-17-2020 16:28</t>
-  </si>
-  <si>
-    <t>0h 10m 12s</t>
-  </si>
-  <si>
     <t>s2-0fgy2o4jr-qk0gaixuchjphmj-btoz7c</t>
   </si>
   <si>
-    <t>10-17-2020 16:30</t>
-  </si>
-  <si>
-    <t>10-17-2020 16:44</t>
-  </si>
-  <si>
-    <t>0h 15m 30s</t>
-  </si>
-  <si>
     <t>Hanna Woldańska</t>
   </si>
   <si>
@@ -334,24 +277,12 @@
     <t>lp-jn71yxgdm-rurrmg2d6cibufo-uyrpvm</t>
   </si>
   <si>
-    <t>10-17-2020 16:45</t>
-  </si>
-  <si>
     <t>10-17-2020 16:49</t>
   </si>
   <si>
-    <t>0h 4m 6s</t>
-  </si>
-  <si>
     <t>7z-ao2a9vcqs-ip9eu3ecrt3nys5-wgvlgg</t>
   </si>
   <si>
-    <t>10-17-2020 16:46</t>
-  </si>
-  <si>
-    <t>0h 0m 10s</t>
-  </si>
-  <si>
     <t>Pol Ruiz</t>
   </si>
   <si>
@@ -400,21 +331,12 @@
     <t>fy-taurgfibz-ohniztg2tvhftg9-xvibb5</t>
   </si>
   <si>
-    <t>0h 57m 46s</t>
-  </si>
-  <si>
     <t>224b6b68c10c2ef61473785afa6ec918.kfsr83f4eijkfe5phkm</t>
   </si>
   <si>
     <t>vw-pb56luzru-dt5wpe01rx7myle-hxjzju</t>
   </si>
   <si>
-    <t>10-17-2020 16:51</t>
-  </si>
-  <si>
-    <t>0h 56m 4s</t>
-  </si>
-  <si>
     <t>Joanna Nakonieczna</t>
   </si>
   <si>
@@ -523,18 +445,12 @@
     <t>6t-nlvd53m1v-ijtexthuvoswwgy-hyhcht</t>
   </si>
   <si>
-    <t>0h 50m 54s</t>
-  </si>
-  <si>
     <t>up-a0cafaaa0-afyk1bhziymlkgj-ln3gcw</t>
   </si>
   <si>
     <t>10-17-2020 16:58</t>
   </si>
   <si>
-    <t>0h 49m 12s</t>
-  </si>
-  <si>
     <t>Maria Wierzbicka</t>
   </si>
   <si>
@@ -595,12 +511,6 @@
     <t>s7-ffpanvyvl-pbgdrifh3apiu8t-5chtiv</t>
   </si>
   <si>
-    <t>10-17-2020 17:24</t>
-  </si>
-  <si>
-    <t>0h 24m 12s</t>
-  </si>
-  <si>
     <t>Julian Momot</t>
   </si>
   <si>
@@ -709,9 +619,6 @@
     <t>ht-p8xgjvgcd-odkbknubznzdssk-asnkxe</t>
   </si>
   <si>
-    <t>0h 39m 53s</t>
-  </si>
-  <si>
     <t>Jasper Hari Wang</t>
   </si>
   <si>
@@ -739,9 +646,6 @@
     <t>10-17-2020 17:16</t>
   </si>
   <si>
-    <t>0h 5m 28s</t>
-  </si>
-  <si>
     <t>Karolina Strzelichowski</t>
   </si>
   <si>
@@ -763,57 +667,24 @@
     <t>jq-amguigdef-022yufhe03ag7so-geu1tm</t>
   </si>
   <si>
-    <t>10-17-2020 17:28</t>
-  </si>
-  <si>
-    <t>0h 11m 38s</t>
-  </si>
-  <si>
     <t>0b63c2db48a5a2dba156c64ebfdfa21d.4etl52imt2qkgdttbym</t>
   </si>
   <si>
     <t>6r-hnkhicg16-ketobmamdynhw5t-jmlkca</t>
   </si>
   <si>
-    <t>10-17-2020 17:18</t>
-  </si>
-  <si>
-    <t>0h 29m 41s</t>
-  </si>
-  <si>
     <t>xp-mvcnstqbh-wf55fwtcvhp2tkd-fl9fsl</t>
   </si>
   <si>
-    <t>10-17-2020 17:22</t>
-  </si>
-  <si>
-    <t>10-17-2020 17:23</t>
-  </si>
-  <si>
-    <t>0h 1m 3s</t>
-  </si>
-  <si>
     <t>q0-ceabkpxaf-3wgcw0cpfxw3mi6-2xalnh</t>
   </si>
   <si>
-    <t>0h 23m 54s</t>
-  </si>
-  <si>
     <t>t6-wulf7whhh-icjsol8onypistt-oacztp</t>
   </si>
   <si>
-    <t>0h 23m 51s</t>
-  </si>
-  <si>
     <t>g9-t1weylxxq-mk6zy1hrtb5fe5y-aicnwm</t>
   </si>
   <si>
-    <t>10-17-2020 17:33</t>
-  </si>
-  <si>
-    <t>0h 14m 4s</t>
-  </si>
-  <si>
     <t>88e3fb45f70638a91524d103b99729b9.mekiitx0xndkgegozcq</t>
   </si>
   <si>
@@ -824,12 +695,24 @@
   </si>
   <si>
     <t>indeks</t>
+  </si>
+  <si>
+    <t>vlookup</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>nazwisko</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -910,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -920,10 +803,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1231,62 +1118,63 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K59"/>
+    <sheetView tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,34 +1182,35 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="2">
         <v>811</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I2" s="8">
+        <v>44120.47152777778</v>
+      </c>
+      <c r="J2" s="8">
+        <v>44120.472222222219</v>
+      </c>
+      <c r="K2" s="2">
+        <f>IF(I2&lt;$I$38,IF(J2&lt;$I$38,0,J2-$I$38),J2-I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1329,34 +1218,35 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="2">
         <v>811</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I3" s="8">
+        <v>44121.495833333334</v>
+      </c>
+      <c r="J3" s="8">
+        <v>44121.495833333334</v>
+      </c>
+      <c r="K3" s="2">
+        <f>IF(I3&lt;$I$38,IF(J3&lt;$I$38,0,J3-$I$38),J3-I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1364,34 +1254,35 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="2">
         <v>811</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I4" s="8">
+        <v>44121.609722222223</v>
+      </c>
+      <c r="J4" s="8">
+        <v>44121.612500000003</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K59" si="0">IF(I4&lt;$I$38,IF(J4&lt;$I$38,0,J4-$I$38),J4-I4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1399,416 +1290,435 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2">
+        <v>811</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="8">
+        <v>44121.62777777778</v>
+      </c>
+      <c r="J5" s="8">
+        <v>44121.640972222223</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="2">
-        <v>811</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2">
+        <v>811</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="8">
+        <v>44121.642361111109</v>
+      </c>
+      <c r="J6" s="8">
+        <v>44121.643055555556</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2">
+        <v>811</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8">
+        <v>44121.642361111109</v>
+      </c>
+      <c r="J7" s="8">
+        <v>44121.661111111112</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2">
+        <v>811</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="8">
+        <v>44121.643055555556</v>
+      </c>
+      <c r="J8" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2">
+        <v>811</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="8">
+        <v>44121.656944444447</v>
+      </c>
+      <c r="J9" s="8">
+        <v>44121.664583333331</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2">
+        <v>811</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="8">
+        <v>44121.661805555559</v>
+      </c>
+      <c r="J10" s="8">
+        <v>44121.669444444444</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2">
-        <v>811</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="2">
-        <v>811</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2">
+        <v>811</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8">
+        <v>44121.668749999997</v>
+      </c>
+      <c r="J11" s="8">
+        <v>44121.669444444444</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2">
+        <v>811</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="8">
+        <v>44121.670138888891</v>
+      </c>
+      <c r="J12" s="8">
+        <v>44121.677083333336</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2">
-        <v>811</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="2">
-        <v>811</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F13" s="2">
+        <v>811</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="8">
+        <v>44121.677777777775</v>
+      </c>
+      <c r="J13" s="8">
+        <v>44121.677777777775</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="10">
+        <v>44121.740972222222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="2">
-        <v>811</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="F14" s="2">
+        <v>811</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="8">
+        <v>44121.678472222222</v>
+      </c>
+      <c r="J14" s="8">
+        <v>44121.686111111114</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="F15" s="2">
+        <v>811</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="8">
+        <v>44121.6875</v>
+      </c>
+      <c r="J15" s="8">
+        <v>44121.697222222225</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <f>MOD(O13,1)</f>
+        <v>0.74097222222189885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="2">
-        <v>811</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="2">
-        <v>811</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="2">
-        <v>811</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="2">
-        <v>811</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="2">
-        <v>811</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F16" s="2">
         <v>811</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
+      </c>
+      <c r="I16" s="8">
+        <v>44121.688194444447</v>
+      </c>
+      <c r="J16" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1819,31 +1729,32 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2">
         <v>811</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
+      </c>
+      <c r="I17" s="8">
+        <v>44121.690972222219</v>
+      </c>
+      <c r="J17" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1854,31 +1765,32 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2">
         <v>811</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>102</v>
+        <v>35</v>
+      </c>
+      <c r="I18" s="8">
+        <v>44121.695833333331</v>
+      </c>
+      <c r="J18" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1889,31 +1801,32 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2">
         <v>811</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>106</v>
+        <v>35</v>
+      </c>
+      <c r="I19" s="8">
+        <v>44121.697916666664</v>
+      </c>
+      <c r="J19" s="8">
+        <v>44121.700694444444</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1924,31 +1837,32 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F20" s="2">
         <v>811</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
+      </c>
+      <c r="I20" s="8">
+        <v>44121.698611111111</v>
+      </c>
+      <c r="J20" s="8">
+        <v>44121.698611111111</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1959,31 +1873,32 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F21" s="2">
         <v>811</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>114</v>
+        <v>35</v>
+      </c>
+      <c r="I21" s="8">
+        <v>44121.7</v>
+      </c>
+      <c r="J21" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1994,31 +1909,32 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F22" s="2">
         <v>811</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>119</v>
+        <v>35</v>
+      </c>
+      <c r="I22" s="8">
+        <v>44121.700694444444</v>
+      </c>
+      <c r="J22" s="8">
+        <v>44121.714583333334</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2499999985448085E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2029,31 +1945,32 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2">
         <v>811</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>124</v>
+        <v>35</v>
+      </c>
+      <c r="I23" s="8">
+        <v>44121.701388888891</v>
+      </c>
+      <c r="J23" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2064,31 +1981,32 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2">
         <v>811</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>126</v>
+        <v>35</v>
+      </c>
+      <c r="I24" s="8">
+        <v>44121.701388888891</v>
+      </c>
+      <c r="J24" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2099,31 +2017,32 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F25" s="2">
         <v>811</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>130</v>
+        <v>35</v>
+      </c>
+      <c r="I25" s="8">
+        <v>44121.70208333333</v>
+      </c>
+      <c r="J25" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2134,31 +2053,32 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2">
         <v>860305</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>135</v>
+        <v>35</v>
+      </c>
+      <c r="I26" s="8">
+        <v>44121.70416666667</v>
+      </c>
+      <c r="J26" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2169,31 +2089,32 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2">
         <v>811</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
+      </c>
+      <c r="I27" s="8">
+        <v>44121.70416666667</v>
+      </c>
+      <c r="J27" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2204,31 +2125,32 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="F28" s="2">
         <v>811</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>144</v>
+        <v>35</v>
+      </c>
+      <c r="I28" s="8">
+        <v>44121.704861111109</v>
+      </c>
+      <c r="J28" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2239,31 +2161,32 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="F29" s="2">
         <v>811</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
+      </c>
+      <c r="I29" s="8">
+        <v>44121.704861111109</v>
+      </c>
+      <c r="J29" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2274,31 +2197,32 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="F30" s="2">
         <v>811</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>152</v>
+        <v>35</v>
+      </c>
+      <c r="I30" s="8">
+        <v>44121.704861111109</v>
+      </c>
+      <c r="J30" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2309,31 +2233,32 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="F31" s="2">
         <v>811</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>156</v>
+        <v>35</v>
+      </c>
+      <c r="I31" s="8">
+        <v>44121.704861111109</v>
+      </c>
+      <c r="J31" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2344,31 +2269,32 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="F32" s="2">
         <v>811</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>161</v>
+        <v>35</v>
+      </c>
+      <c r="I32" s="8">
+        <v>44121.706250000003</v>
+      </c>
+      <c r="J32" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2379,31 +2305,32 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F33" s="2">
         <v>811</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>165</v>
+        <v>35</v>
+      </c>
+      <c r="I33" s="8">
+        <v>44121.706250000003</v>
+      </c>
+      <c r="J33" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2414,31 +2341,32 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="F34" s="2">
         <v>811</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>167</v>
+        <v>35</v>
+      </c>
+      <c r="I34" s="8">
+        <v>44121.706250000003</v>
+      </c>
+      <c r="J34" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2449,31 +2377,32 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="F35" s="2">
         <v>811</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>170</v>
+        <v>35</v>
+      </c>
+      <c r="I35" s="8">
+        <v>44121.706944444442</v>
+      </c>
+      <c r="J35" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2484,31 +2413,32 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="F36" s="2">
         <v>811</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>174</v>
+        <v>35</v>
+      </c>
+      <c r="I36" s="8">
+        <v>44121.706944444442</v>
+      </c>
+      <c r="J36" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2519,31 +2449,32 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="F37" s="2">
         <v>811</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>179</v>
+        <v>35</v>
+      </c>
+      <c r="I37" s="8">
+        <v>44121.707638888889</v>
+      </c>
+      <c r="J37" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2554,31 +2485,32 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="F38" s="2">
         <v>811</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>183</v>
+        <v>35</v>
+      </c>
+      <c r="I38" s="9">
+        <v>44121.708333333336</v>
+      </c>
+      <c r="J38" s="9">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2589,31 +2521,32 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="F39" s="2">
         <v>811</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>188</v>
+        <v>35</v>
+      </c>
+      <c r="I39" s="8">
+        <v>44121.708333333336</v>
+      </c>
+      <c r="J39" s="8">
+        <v>44121.713888888888</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5555555518367328E-3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2624,31 +2557,32 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F40" s="2">
         <v>811</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>192</v>
+        <v>35</v>
+      </c>
+      <c r="I40" s="8">
+        <v>44121.708333333336</v>
+      </c>
+      <c r="J40" s="8">
+        <v>44121.724999999999</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6666666662786156E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2659,31 +2593,32 @@
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F41" s="2">
         <v>811</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>196</v>
+        <v>35</v>
+      </c>
+      <c r="I41" s="8">
+        <v>44121.708333333336</v>
+      </c>
+      <c r="J41" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,31 +2629,32 @@
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="F42" s="2">
         <v>811</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>200</v>
+        <v>35</v>
+      </c>
+      <c r="I42" s="8">
+        <v>44121.708333333336</v>
+      </c>
+      <c r="J42" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2729,31 +2665,32 @@
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F43" s="2">
         <v>811</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>204</v>
+        <v>35</v>
+      </c>
+      <c r="I43" s="8">
+        <v>44121.708333333336</v>
+      </c>
+      <c r="J43" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2638888886140194E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2764,31 +2701,32 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="F44" s="2">
         <v>811</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>209</v>
+        <v>35</v>
+      </c>
+      <c r="I44" s="8">
+        <v>44121.710416666669</v>
+      </c>
+      <c r="J44" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0555555553291924E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2799,31 +2737,32 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="F45" s="2">
         <v>811</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>214</v>
+        <v>35</v>
+      </c>
+      <c r="I45" s="8">
+        <v>44121.711111111108</v>
+      </c>
+      <c r="J45" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9861111113859806E-2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2834,31 +2773,32 @@
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="F46" s="2">
         <v>811</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>218</v>
+        <v>35</v>
+      </c>
+      <c r="I46" s="8">
+        <v>44121.711111111108</v>
+      </c>
+      <c r="J46" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9861111113859806E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2869,31 +2809,32 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="F47" s="2">
         <v>811</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>223</v>
+        <v>35</v>
+      </c>
+      <c r="I47" s="8">
+        <v>44121.711111111108</v>
+      </c>
+      <c r="J47" s="8">
+        <v>44121.722916666666</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1805555557657499E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2904,31 +2845,32 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="F48" s="2">
         <v>811</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>227</v>
+        <v>35</v>
+      </c>
+      <c r="I48" s="8">
+        <v>44121.713888888888</v>
+      </c>
+      <c r="J48" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7083333334303461E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2939,31 +2881,32 @@
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="F49" s="2">
         <v>811</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>229</v>
+        <v>35</v>
+      </c>
+      <c r="I49" s="8">
+        <v>44121.713888888888</v>
+      </c>
+      <c r="J49" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7083333334303461E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2974,31 +2917,32 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="F50" s="2">
         <v>811</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>235</v>
+        <v>35</v>
+      </c>
+      <c r="I50" s="8">
+        <v>44121.71875</v>
+      </c>
+      <c r="J50" s="8">
+        <v>44121.722222222219</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4722222189884633E-3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3009,31 +2953,32 @@
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="F51" s="2">
         <v>811</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>239</v>
+        <v>35</v>
+      </c>
+      <c r="I51" s="8">
+        <v>44121.719444444447</v>
+      </c>
+      <c r="J51" s="8">
+        <v>44121.722916666666</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4722222189884633E-3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,31 +2989,32 @@
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="F52" s="2">
         <v>811</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>244</v>
+        <v>35</v>
+      </c>
+      <c r="I52" s="8">
+        <v>44121.719444444447</v>
+      </c>
+      <c r="J52" s="8">
+        <v>44121.720138888886</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9444443943211809E-4</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3079,31 +3025,32 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="F53" s="2">
         <v>811</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>248</v>
+        <v>35</v>
+      </c>
+      <c r="I53" s="8">
+        <v>44121.720138888886</v>
+      </c>
+      <c r="J53" s="8">
+        <v>44121.727777777778</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6388888919609599E-3</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3114,31 +3061,32 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="F54" s="2">
         <v>811</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>252</v>
+        <v>35</v>
+      </c>
+      <c r="I54" s="8">
+        <v>44121.720833333333</v>
+      </c>
+      <c r="J54" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0138888889050577E-2</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3149,31 +3097,32 @@
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="F55" s="2">
         <v>811</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>256</v>
+        <v>35</v>
+      </c>
+      <c r="I55" s="8">
+        <v>44121.723611111112</v>
+      </c>
+      <c r="J55" s="8">
+        <v>44121.724305555559</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="0"/>
+        <v>6.944444467080757E-4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3184,31 +3133,32 @@
         <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="F56" s="2">
         <v>811</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>258</v>
+        <v>35</v>
+      </c>
+      <c r="I56" s="8">
+        <v>44121.724999999999</v>
+      </c>
+      <c r="J56" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5972222223354038E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3219,31 +3169,32 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="F57" s="2">
         <v>811</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>260</v>
+        <v>35</v>
+      </c>
+      <c r="I57" s="8">
+        <v>44121.724999999999</v>
+      </c>
+      <c r="J57" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5972222223354038E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3254,31 +3205,32 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="F58" s="2">
         <v>811</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>263</v>
+        <v>35</v>
+      </c>
+      <c r="I58" s="8">
+        <v>44121.731249999997</v>
+      </c>
+      <c r="J58" s="8">
+        <v>44121.740972222222</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="0"/>
+        <v>9.7222222248092294E-3</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3289,31 +3241,32 @@
         <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="F59" s="2">
         <v>811</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="I59" s="8">
+        <v>44122.165972222225</v>
+      </c>
+      <c r="J59" s="8">
+        <v>44122.165972222225</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3329,444 +3282,807 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="11">
+        <f>SUMIFS($K$2:$K$59,$C$2:$C$59,C63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="11">
+        <f t="shared" ref="D64:D97" si="1">SUMIFS($K$2:$K$59,$C$2:$C$59,C64)</f>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="11">
+        <f t="shared" si="1"/>
+        <v>6.2499999985448085E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>147</v>
+      </c>
+      <c r="D85" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2638888886140194E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="11">
+        <f t="shared" si="1"/>
+        <v>3.0555555553291924E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9861111113859806E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9861111113859806E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="11">
+        <f t="shared" si="1"/>
+        <v>2.7777777781011537E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="11">
+        <f t="shared" si="1"/>
+        <v>2.7083333334303461E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4305555554747116E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" s="11">
+        <f t="shared" si="1"/>
+        <v>2.1527777775190771E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="D63:D97">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4E4DDD50-1399-4193-9978-74F2A470B98F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4E4DDD50-1399-4193-9978-74F2A470B98F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D63:D97</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" customWidth="1"/>
     <col min="13" max="13" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>49</v>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="N7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>88</v>
+        <v>62</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M9" t="str">
         <f>VLOOKUP(L9,$A$1:$D$36,MATCH($M$8,$A$1:$D$1,0),FALSE)</f>
         <v>10-17-2020 16:31</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" ref="M10:M14" si="0">VLOOKUP(L10,$A$1:$D$36,MATCH($M$8,$A$1:$D$1,0),FALSE)</f>
         <v>10-17-2020 15:25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
         <v>10-17-2020 16:54</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
         <v>10-17-2020 16:55</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="L13" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
         <v>10-17-2020 17:00</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
         <v>10-17-2020 17:08</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>136</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>153</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M22" t="str">
         <f>INDEX($A$1:$D$36,MATCH(L22,$A$1:$A$36,0),MATCH($M$21,$A$1:$D$1,0))</f>
         <v>10-17-2020 16:31</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" ref="M23:M27" si="1">INDEX($A$1:$D$36,MATCH(L23,$A$1:$A$36,0),MATCH($M$21,$A$1:$D$1,0))</f>
         <v>10-17-2020 15:25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
         <v>10-17-2020 16:54</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>180</v>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -3775,40 +4091,40 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
         <v>10-17-2020 16:55</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
         <v>10-17-2020 17:00</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -3817,19 +4133,19 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="1"/>
         <v>10-17-2020 17:08</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -3838,12 +4154,12 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -3852,111 +4168,129 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="I31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" t="str">
+        <f>INDEX($A$1:$D$36,MATCH(I31,$A$1:$A$36,0),MATCH($J$30,$A$1:$D$1,0))</f>
+        <v>10-17-2020 17:04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>224</v>
+      <c r="A34" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="L9:L13">
     <sortCondition ref="L9:L13"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I31">
+      <formula1>$A$2:$A$36</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
